--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H2">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>720.826048582994</v>
+        <v>1151.869665969093</v>
       </c>
       <c r="R2">
-        <v>720.826048582994</v>
+        <v>10366.82699372184</v>
       </c>
       <c r="S2">
-        <v>0.006334985461903603</v>
+        <v>0.00905341789723179</v>
       </c>
       <c r="T2">
-        <v>0.006334985461903603</v>
+        <v>0.009053417897231792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H3">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>1430.12245648478</v>
+        <v>1769.621639659928</v>
       </c>
       <c r="R3">
-        <v>1430.12245648478</v>
+        <v>15926.59475693935</v>
       </c>
       <c r="S3">
-        <v>0.01256864258496595</v>
+        <v>0.01390879949108386</v>
       </c>
       <c r="T3">
-        <v>0.01256864258496595</v>
+        <v>0.01390879949108386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H4">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>671.383866368609</v>
+        <v>884.267560952072</v>
       </c>
       <c r="R4">
-        <v>671.383866368609</v>
+        <v>7958.408048568649</v>
       </c>
       <c r="S4">
-        <v>0.005900462450216333</v>
+        <v>0.006950129861723262</v>
       </c>
       <c r="T4">
-        <v>0.005900462450216333</v>
+        <v>0.006950129861723262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H5">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>753.5718874036883</v>
+        <v>928.1326331541101</v>
       </c>
       <c r="R5">
-        <v>753.5718874036883</v>
+        <v>8353.193698386993</v>
       </c>
       <c r="S5">
-        <v>0.006622772526861555</v>
+        <v>0.007294898754828178</v>
       </c>
       <c r="T5">
-        <v>0.006622772526861555</v>
+        <v>0.00729489875482818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H6">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>562.7298375697512</v>
+        <v>707.0022603790979</v>
       </c>
       <c r="R6">
-        <v>562.7298375697512</v>
+        <v>6363.020343411882</v>
       </c>
       <c r="S6">
-        <v>0.004945555653810835</v>
+        <v>0.005556867331960109</v>
       </c>
       <c r="T6">
-        <v>0.004945555653810835</v>
+        <v>0.005556867331960109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H7">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>1063.519463382035</v>
+        <v>1407.468982639175</v>
       </c>
       <c r="R7">
-        <v>1063.519463382035</v>
+        <v>12667.22084375258</v>
       </c>
       <c r="S7">
-        <v>0.009346749263877343</v>
+        <v>0.01106236690980456</v>
       </c>
       <c r="T7">
-        <v>0.009346749263877343</v>
+        <v>0.01106236690980456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>1618.862320885479</v>
+        <v>2113.784604496191</v>
       </c>
       <c r="R8">
-        <v>1618.862320885479</v>
+        <v>19024.06144046572</v>
       </c>
       <c r="S8">
-        <v>0.01422738438461447</v>
+        <v>0.01661383742850671</v>
       </c>
       <c r="T8">
-        <v>0.01422738438461447</v>
+        <v>0.01661383742850671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>3211.83087598815</v>
+        <v>3247.415127083336</v>
       </c>
       <c r="R9">
-        <v>3211.83087598815</v>
+        <v>29226.73614375003</v>
       </c>
       <c r="S9">
-        <v>0.02822720120267041</v>
+        <v>0.02552390005560437</v>
       </c>
       <c r="T9">
-        <v>0.02822720120267041</v>
+        <v>0.02552390005560438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>1507.822929333848</v>
+        <v>1622.710634560664</v>
       </c>
       <c r="R10">
-        <v>1507.822929333848</v>
+        <v>14604.39571104598</v>
       </c>
       <c r="S10">
-        <v>0.01325151380868145</v>
+        <v>0.01275411440633776</v>
       </c>
       <c r="T10">
-        <v>0.01325151380868145</v>
+        <v>0.01275411440633776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>1692.404342205076</v>
+        <v>1703.20699368457</v>
       </c>
       <c r="R11">
-        <v>1692.404342205076</v>
+        <v>15328.86294316113</v>
       </c>
       <c r="S11">
-        <v>0.01487370902398411</v>
+        <v>0.01338679638406936</v>
       </c>
       <c r="T11">
-        <v>0.01487370902398411</v>
+        <v>0.01338679638406937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>1263.803011379088</v>
+        <v>1297.412838870126</v>
       </c>
       <c r="R12">
-        <v>1263.803011379088</v>
+        <v>11676.71554983113</v>
       </c>
       <c r="S12">
-        <v>0.01110694281863859</v>
+        <v>0.01019735215063843</v>
       </c>
       <c r="T12">
-        <v>0.01110694281863859</v>
+        <v>0.01019735215063843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>2388.498015827864</v>
+        <v>2582.832376530725</v>
       </c>
       <c r="R13">
-        <v>2388.498015827864</v>
+        <v>23245.49138877653</v>
       </c>
       <c r="S13">
-        <v>0.02099133381181211</v>
+        <v>0.02030043984495413</v>
       </c>
       <c r="T13">
-        <v>0.02099133381181211</v>
+        <v>0.02030043984495413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H14">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>3592.218212564379</v>
+        <v>5212.774416913408</v>
       </c>
       <c r="R14">
-        <v>3592.218212564379</v>
+        <v>46914.96975222068</v>
       </c>
       <c r="S14">
-        <v>0.0315702383360256</v>
+        <v>0.04097115029121893</v>
       </c>
       <c r="T14">
-        <v>0.0315702383360256</v>
+        <v>0.04097115029121894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H15">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>7126.978755111456</v>
+        <v>8008.404668834421</v>
       </c>
       <c r="R15">
-        <v>7126.978755111456</v>
+        <v>72075.6420195098</v>
       </c>
       <c r="S15">
-        <v>0.06263550948204745</v>
+        <v>0.06294413013828389</v>
       </c>
       <c r="T15">
-        <v>0.06263550948204745</v>
+        <v>0.0629441301382839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H16">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>3345.824359611115</v>
+        <v>4001.743821910022</v>
       </c>
       <c r="R16">
-        <v>3345.824359611115</v>
+        <v>36015.6943971902</v>
       </c>
       <c r="S16">
-        <v>0.02940480399936452</v>
+        <v>0.03145274175350065</v>
       </c>
       <c r="T16">
-        <v>0.02940480399936452</v>
+        <v>0.03145274175350065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H17">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>3755.406264423262</v>
+        <v>4200.254758456362</v>
       </c>
       <c r="R17">
-        <v>3755.406264423262</v>
+        <v>37802.29282610726</v>
       </c>
       <c r="S17">
-        <v>0.03300441782789418</v>
+        <v>0.03301298986040157</v>
       </c>
       <c r="T17">
-        <v>0.03300441782789418</v>
+        <v>0.03301298986040158</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H18">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>2804.349780706781</v>
+        <v>3199.531513405616</v>
       </c>
       <c r="R18">
-        <v>2804.349780706781</v>
+        <v>28795.78362065055</v>
       </c>
       <c r="S18">
-        <v>0.02464605035541324</v>
+        <v>0.02514754639523666</v>
       </c>
       <c r="T18">
-        <v>0.02464605035541324</v>
+        <v>0.02514754639523666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H19">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>5300.022097269936</v>
+        <v>6369.486515757847</v>
       </c>
       <c r="R19">
-        <v>5300.022097269936</v>
+        <v>57325.37864182062</v>
       </c>
       <c r="S19">
-        <v>0.04657928636177345</v>
+        <v>0.05006262854350219</v>
       </c>
       <c r="T19">
-        <v>0.04657928636177345</v>
+        <v>0.05006262854350219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H20">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>4827.925346646799</v>
+        <v>6286.355458731271</v>
       </c>
       <c r="R20">
-        <v>4827.925346646799</v>
+        <v>56577.19912858144</v>
       </c>
       <c r="S20">
-        <v>0.04243026031354905</v>
+        <v>0.04940923847539322</v>
       </c>
       <c r="T20">
-        <v>0.04243026031354905</v>
+        <v>0.04940923847539323</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H21">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>9578.627839607945</v>
+        <v>9657.751204869093</v>
       </c>
       <c r="R21">
-        <v>9578.627839607945</v>
+        <v>86919.76084382184</v>
       </c>
       <c r="S21">
-        <v>0.08418184696319958</v>
+        <v>0.07590759630918158</v>
       </c>
       <c r="T21">
-        <v>0.08418184696319958</v>
+        <v>0.07590759630918159</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H22">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>4496.773101003619</v>
+        <v>4825.910754489127</v>
       </c>
       <c r="R22">
-        <v>4496.773101003619</v>
+        <v>43433.19679040214</v>
       </c>
       <c r="S22">
-        <v>0.03951992616850776</v>
+        <v>0.03793049516446555</v>
       </c>
       <c r="T22">
-        <v>0.03951992616850776</v>
+        <v>0.03793049516446555</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H23">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>5047.249364626483</v>
+        <v>5065.305404970636</v>
       </c>
       <c r="R23">
-        <v>5047.249364626483</v>
+        <v>45587.74864473572</v>
       </c>
       <c r="S23">
-        <v>0.04435779119021327</v>
+        <v>0.03981207940719965</v>
       </c>
       <c r="T23">
-        <v>0.04435779119021327</v>
+        <v>0.03981207940719966</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H24">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>3769.033668328415</v>
+        <v>3858.481258928077</v>
       </c>
       <c r="R24">
-        <v>3769.033668328415</v>
+        <v>34726.3313303527</v>
       </c>
       <c r="S24">
-        <v>0.03312418237551609</v>
+        <v>0.03032673254427919</v>
       </c>
       <c r="T24">
-        <v>0.03312418237551609</v>
+        <v>0.0303267325442792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H25">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>7123.20619379385</v>
+        <v>7681.29466675801</v>
       </c>
       <c r="R25">
-        <v>7123.20619379385</v>
+        <v>69131.65200082208</v>
       </c>
       <c r="S25">
-        <v>0.0626023542968982</v>
+        <v>0.060373124377254</v>
       </c>
       <c r="T25">
-        <v>0.0626023542968982</v>
+        <v>0.060373124377254</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H26">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>4294.45965705352</v>
+        <v>5668.356557260184</v>
       </c>
       <c r="R26">
-        <v>4294.45965705352</v>
+        <v>51015.20901534166</v>
       </c>
       <c r="S26">
-        <v>0.03774189285701603</v>
+        <v>0.0445519160887144</v>
       </c>
       <c r="T26">
-        <v>0.03774189285701603</v>
+        <v>0.04455191608871441</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H27">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>8520.2292648738</v>
+        <v>8708.317200624171</v>
       </c>
       <c r="R27">
-        <v>8520.2292648738</v>
+        <v>78374.85480561754</v>
       </c>
       <c r="S27">
-        <v>0.07488010266993918</v>
+        <v>0.06844527391262835</v>
       </c>
       <c r="T27">
-        <v>0.07488010266993918</v>
+        <v>0.06844527391262838</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H28">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>3999.898358535299</v>
+        <v>4351.485220576716</v>
       </c>
       <c r="R28">
-        <v>3999.898358535299</v>
+        <v>39163.36698519044</v>
       </c>
       <c r="S28">
-        <v>0.03515313854185128</v>
+        <v>0.0342016248360567</v>
       </c>
       <c r="T28">
-        <v>0.03515313854185128</v>
+        <v>0.0342016248360567</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H29">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>4489.549282391412</v>
+        <v>4567.345466746082</v>
       </c>
       <c r="R29">
-        <v>4489.549282391412</v>
+        <v>41106.10920071474</v>
       </c>
       <c r="S29">
-        <v>0.0394564395811713</v>
+        <v>0.0358982343342558</v>
       </c>
       <c r="T29">
-        <v>0.0394564395811713</v>
+        <v>0.03589823433425581</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H30">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>3352.571109235287</v>
+        <v>3479.16176371048</v>
       </c>
       <c r="R30">
-        <v>3352.571109235287</v>
+        <v>31312.45587339433</v>
       </c>
       <c r="S30">
-        <v>0.02946409786210471</v>
+        <v>0.02734537275312374</v>
       </c>
       <c r="T30">
-        <v>0.02946409786210471</v>
+        <v>0.02734537275312375</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H31">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>6336.12150804439</v>
+        <v>6926.162110685493</v>
       </c>
       <c r="R31">
-        <v>6336.12150804439</v>
+        <v>62335.45899616944</v>
       </c>
       <c r="S31">
-        <v>0.05568505427519164</v>
+        <v>0.05443796452374956</v>
       </c>
       <c r="T31">
-        <v>0.05568505427519164</v>
+        <v>0.05443796452374957</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H32">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I32">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J32">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>712.0943971261222</v>
+        <v>966.5432568526201</v>
       </c>
       <c r="R32">
-        <v>712.0943971261222</v>
+        <v>8698.889311673582</v>
       </c>
       <c r="S32">
-        <v>0.006258247273617496</v>
+        <v>0.007596796997580633</v>
       </c>
       <c r="T32">
-        <v>0.006258247273617496</v>
+        <v>0.007596796997580635</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H33">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I33">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J33">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>1412.798816675678</v>
+        <v>1484.90399003152</v>
       </c>
       <c r="R33">
-        <v>1412.798816675678</v>
+        <v>13364.13591028368</v>
       </c>
       <c r="S33">
-        <v>0.01241639363869985</v>
+        <v>0.0116709874009157</v>
       </c>
       <c r="T33">
-        <v>0.01241639363869985</v>
+        <v>0.0116709874009157</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H34">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I34">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J34">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>663.2511276497158</v>
+        <v>741.99614204848</v>
       </c>
       <c r="R34">
-        <v>663.2511276497158</v>
+        <v>6677.965278436321</v>
       </c>
       <c r="S34">
-        <v>0.005828987811292102</v>
+        <v>0.005831910806025946</v>
       </c>
       <c r="T34">
-        <v>0.005828987811292102</v>
+        <v>0.005831910806025947</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H35">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I35">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J35">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>744.4435726300464</v>
+        <v>778.8036828674001</v>
       </c>
       <c r="R35">
-        <v>744.4435726300464</v>
+        <v>7009.233145806601</v>
       </c>
       <c r="S35">
-        <v>0.006542548259860689</v>
+        <v>0.006121209203794536</v>
       </c>
       <c r="T35">
-        <v>0.006542548259860689</v>
+        <v>0.006121209203794538</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H36">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I36">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J36">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>555.9132681412459</v>
+        <v>593.2513786393199</v>
       </c>
       <c r="R36">
-        <v>555.9132681412459</v>
+        <v>5339.26240775388</v>
       </c>
       <c r="S36">
-        <v>0.004885648179164869</v>
+        <v>0.004662812823021911</v>
       </c>
       <c r="T36">
-        <v>0.004885648179164869</v>
+        <v>0.004662812823021912</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H37">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I37">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J37">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>1050.636630845522</v>
+        <v>1181.0187337945</v>
       </c>
       <c r="R37">
-        <v>1050.636630845522</v>
+        <v>10629.1686041505</v>
       </c>
       <c r="S37">
-        <v>0.009233528387651541</v>
+        <v>0.009282522543473287</v>
       </c>
       <c r="T37">
-        <v>0.009233528387651541</v>
+        <v>0.009282522543473289</v>
       </c>
     </row>
   </sheetData>
